--- a/Code/Results/Cases/Case_0_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_199/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1381444357967467</v>
+        <v>0.1909554164245861</v>
       </c>
       <c r="D2">
-        <v>0.06851038208020555</v>
+        <v>0.04649090588771543</v>
       </c>
       <c r="E2">
-        <v>0.06051648246420882</v>
+        <v>0.1198196255914432</v>
       </c>
       <c r="F2">
-        <v>0.4597916923340364</v>
+        <v>0.9041384715165393</v>
       </c>
       <c r="G2">
-        <v>0.0008029171520472522</v>
+        <v>0.002458797528885286</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4074258090018787</v>
+        <v>0.9159076666920143</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.674165131822747</v>
+        <v>1.332658977748679</v>
       </c>
       <c r="L2">
-        <v>0.05855207352357894</v>
+        <v>0.1470131957561911</v>
       </c>
       <c r="M2">
-        <v>0.7939626507859643</v>
+        <v>0.3985214942162756</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.336282505645187</v>
+        <v>3.219270872553608</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1256344812268395</v>
+        <v>0.1884995670253033</v>
       </c>
       <c r="D3">
-        <v>0.06245908368105546</v>
+        <v>0.04442701427139184</v>
       </c>
       <c r="E3">
-        <v>0.05754702970899395</v>
+        <v>0.1199813651475345</v>
       </c>
       <c r="F3">
-        <v>0.4429498273155232</v>
+        <v>0.9107671145248588</v>
       </c>
       <c r="G3">
-        <v>0.0008073525175063874</v>
+        <v>0.002461696270925397</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3996637010148874</v>
+        <v>0.9243026318311678</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.198008383049796</v>
+        <v>1.1814544102985</v>
       </c>
       <c r="L3">
-        <v>0.05824346421106696</v>
+        <v>0.1483474949222447</v>
       </c>
       <c r="M3">
-        <v>0.6911898388792679</v>
+        <v>0.3677618158228384</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.331465813995408</v>
+        <v>3.257357974828835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1180768680257387</v>
+        <v>0.187066929185093</v>
       </c>
       <c r="D4">
-        <v>0.05874377242255946</v>
+        <v>0.04315422489717946</v>
       </c>
       <c r="E4">
-        <v>0.05582777729103938</v>
+        <v>0.1201420431006177</v>
       </c>
       <c r="F4">
-        <v>0.4340641999608081</v>
+        <v>0.9155409833865065</v>
       </c>
       <c r="G4">
-        <v>0.0008101617399440925</v>
+        <v>0.002463570348477426</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3961705478638642</v>
+        <v>0.9301062141144207</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.90590862506258</v>
+        <v>1.088394305530073</v>
       </c>
       <c r="L4">
-        <v>0.05820494199996773</v>
+        <v>0.149252416021227</v>
       </c>
       <c r="M4">
-        <v>0.6282686700277651</v>
+        <v>0.3489113508678798</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.333401664375501</v>
+        <v>3.283167235726197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1150260489800274</v>
+        <v>0.1865021066187325</v>
       </c>
       <c r="D5">
-        <v>0.05722936477294382</v>
+        <v>0.04263419304613336</v>
       </c>
       <c r="E5">
-        <v>0.05515201993641838</v>
+        <v>0.1202229615258155</v>
       </c>
       <c r="F5">
-        <v>0.4307890858228802</v>
+        <v>0.917663107118166</v>
       </c>
       <c r="G5">
-        <v>0.0008113285696216538</v>
+        <v>0.002464357817982894</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3950507847980411</v>
+        <v>0.9326342427150855</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.786900525067296</v>
+        <v>1.050418647405735</v>
       </c>
       <c r="L5">
-        <v>0.05822552848851004</v>
+        <v>0.1496427076948095</v>
       </c>
       <c r="M5">
-        <v>0.6026630687846364</v>
+        <v>0.3412391789052336</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.335358223649862</v>
+        <v>3.29429323864386</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1145211533980302</v>
+        <v>0.186409467021079</v>
       </c>
       <c r="D6">
-        <v>0.0569778628907045</v>
+        <v>0.04254776109362268</v>
       </c>
       <c r="E6">
-        <v>0.05504127518233304</v>
+        <v>0.1202373308267841</v>
       </c>
       <c r="F6">
-        <v>0.4302655755761506</v>
+        <v>0.9180261508725067</v>
       </c>
       <c r="G6">
-        <v>0.0008115236653050799</v>
+        <v>0.002464490014267802</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3948827314606689</v>
+        <v>0.9330638606304227</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.767139681280014</v>
+        <v>1.044109693342079</v>
       </c>
       <c r="L6">
-        <v>0.05823109094088608</v>
+        <v>0.1497088153368402</v>
       </c>
       <c r="M6">
-        <v>0.5984131179873202</v>
+        <v>0.3399658109782351</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.335751859463002</v>
+        <v>3.296177429007898</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.118035609002888</v>
+        <v>0.1870592348202109</v>
       </c>
       <c r="D7">
-        <v>0.05872335072011481</v>
+        <v>0.04314721702421309</v>
       </c>
       <c r="E7">
-        <v>0.05581856483632208</v>
+        <v>0.120143071863211</v>
       </c>
       <c r="F7">
-        <v>0.434018656116784</v>
+        <v>0.9155688878454527</v>
       </c>
       <c r="G7">
-        <v>0.0008101773864273136</v>
+        <v>0.002463580872366623</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3961542375522846</v>
+        <v>0.930139648170659</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.904303591468562</v>
+        <v>1.087882363574977</v>
       </c>
       <c r="L7">
-        <v>0.05820507487528914</v>
+        <v>0.1492575924745552</v>
       </c>
       <c r="M7">
-        <v>0.6279232143349276</v>
+        <v>0.348807842000852</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.333423403919966</v>
+        <v>3.283314822251029</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1338040576506785</v>
+        <v>0.1900930553264146</v>
       </c>
       <c r="D8">
-        <v>0.06642357221502238</v>
+        <v>0.04578044922185143</v>
       </c>
       <c r="E8">
-        <v>0.05947022439603344</v>
+        <v>0.1198626613713287</v>
       </c>
       <c r="F8">
-        <v>0.4536701307753361</v>
+        <v>0.9062777872423595</v>
       </c>
       <c r="G8">
-        <v>0.0008044289184324937</v>
+        <v>0.002459777498726323</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4044751644991464</v>
+        <v>0.9186674311191965</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.509906060577464</v>
+        <v>1.28057065687392</v>
       </c>
       <c r="L8">
-        <v>0.05841329588716349</v>
+        <v>0.1474554782098885</v>
       </c>
       <c r="M8">
-        <v>0.7584823474917854</v>
+        <v>0.387908333488781</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.333567293747478</v>
+        <v>3.231899729119249</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1658084618211291</v>
+        <v>0.1966372604061064</v>
       </c>
       <c r="D9">
-        <v>0.08154785716411794</v>
+        <v>0.05089883059231681</v>
       </c>
       <c r="E9">
-        <v>0.06751887498732501</v>
+        <v>0.1197994458216911</v>
       </c>
       <c r="F9">
-        <v>0.5047164460466931</v>
+        <v>0.8936549491432118</v>
       </c>
       <c r="G9">
-        <v>0.0007938160031038211</v>
+        <v>0.002453063597374981</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4316732510829411</v>
+        <v>0.9013289781049636</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.701631906170576</v>
+        <v>1.656601484826979</v>
       </c>
       <c r="L9">
-        <v>0.06009963902074489</v>
+        <v>0.1446016635936864</v>
       </c>
       <c r="M9">
-        <v>1.016468206677402</v>
+        <v>0.4648542415935069</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.375677845689466</v>
+        <v>3.150347142242566</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1901359832914125</v>
+        <v>0.2018055969671622</v>
       </c>
       <c r="D10">
-        <v>0.09270970657745181</v>
+        <v>0.05463023381886245</v>
       </c>
       <c r="E10">
-        <v>0.07406652972752781</v>
+        <v>0.1200495192319302</v>
       </c>
       <c r="F10">
-        <v>0.5512739239304096</v>
+        <v>0.887810823439203</v>
       </c>
       <c r="G10">
-        <v>0.0007863886745819923</v>
+        <v>0.002448580216461203</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4594482037319096</v>
+        <v>0.8917477525420452</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.582898735390643</v>
+        <v>1.931668562851598</v>
       </c>
       <c r="L10">
-        <v>0.06223655066491318</v>
+        <v>0.1429203122807543</v>
       </c>
       <c r="M10">
-        <v>1.20799881336545</v>
+        <v>0.5215347778372177</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.436567228520119</v>
+        <v>3.102237781795168</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2014169972974571</v>
+        <v>0.2042345971030528</v>
       </c>
       <c r="D11">
-        <v>0.09780714904285048</v>
+        <v>0.05632116472678206</v>
       </c>
       <c r="E11">
-        <v>0.07720528620515665</v>
+        <v>0.1202276487249776</v>
       </c>
       <c r="F11">
-        <v>0.5747624504394651</v>
+        <v>0.8859008196099438</v>
       </c>
       <c r="G11">
-        <v>0.0007830824556068509</v>
+        <v>0.002446637208377715</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4740541202696349</v>
+        <v>0.8880773275879434</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.985828452937028</v>
+        <v>2.056526202202065</v>
       </c>
       <c r="L11">
-        <v>0.06343217005217738</v>
+        <v>0.1422457720100567</v>
       </c>
       <c r="M11">
-        <v>1.295756381046544</v>
+        <v>0.5473494403248935</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.471840186367558</v>
+        <v>3.082928050803446</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2057229428770029</v>
+        <v>0.2051655458822097</v>
       </c>
       <c r="D12">
-        <v>0.09974105785969556</v>
+        <v>0.05696051118056999</v>
       </c>
       <c r="E12">
-        <v>0.07841889309264616</v>
+        <v>0.120304352871397</v>
       </c>
       <c r="F12">
-        <v>0.5840199679125035</v>
+        <v>0.8852854854197361</v>
       </c>
       <c r="G12">
-        <v>0.0007818402252293535</v>
+        <v>0.00244591524575892</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4798936177949074</v>
+        <v>0.8867866012708916</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.138769786683667</v>
+        <v>2.103765522638582</v>
       </c>
       <c r="L12">
-        <v>0.06391964172034292</v>
+        <v>0.1420033416039921</v>
       </c>
       <c r="M12">
-        <v>1.329095638343375</v>
+        <v>0.5571287782327232</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.486383282866825</v>
+        <v>3.075987342288443</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2047940106143074</v>
+        <v>0.2049645549808616</v>
       </c>
       <c r="D13">
-        <v>0.09932438218241657</v>
+        <v>0.05682286031686345</v>
       </c>
       <c r="E13">
-        <v>0.0781563746426599</v>
+        <v>0.1202874219425425</v>
       </c>
       <c r="F13">
-        <v>0.5820095376737484</v>
+        <v>0.8854132029941155</v>
       </c>
       <c r="G13">
-        <v>0.0007821073386675288</v>
+        <v>0.002446070120094714</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4786218330096261</v>
+        <v>0.8870601673474781</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.10581395563463</v>
+        <v>2.09359357725117</v>
       </c>
       <c r="L13">
-        <v>0.06381306881165472</v>
+        <v>0.1420549747444184</v>
       </c>
       <c r="M13">
-        <v>1.321910373323277</v>
+        <v>0.5550224577246468</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.483196794671272</v>
+        <v>3.077465609137221</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2017705476627896</v>
+        <v>0.2043109639305527</v>
       </c>
       <c r="D14">
-        <v>0.09796617575565136</v>
+        <v>0.05637378384360403</v>
       </c>
       <c r="E14">
-        <v>0.07730461681910583</v>
+        <v>0.1202337738639159</v>
       </c>
       <c r="F14">
-        <v>0.5755166131555569</v>
+        <v>0.8858480306098073</v>
       </c>
       <c r="G14">
-        <v>0.0007829800648918207</v>
+        <v>0.002446577535708904</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4745282043309089</v>
+        <v>0.8879691496329087</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.998403393017554</v>
+        <v>2.060413456512606</v>
       </c>
       <c r="L14">
-        <v>0.06347156341091065</v>
+        <v>0.1422255664151812</v>
       </c>
       <c r="M14">
-        <v>1.29849696816386</v>
+        <v>0.5481539172381957</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.473012304402431</v>
+        <v>3.082349583372263</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1999231271874891</v>
+        <v>0.2039120693373206</v>
       </c>
       <c r="D15">
-        <v>0.09713473010280893</v>
+        <v>0.05609858380682198</v>
       </c>
       <c r="E15">
-        <v>0.07678621166945732</v>
+        <v>0.1202021173625205</v>
       </c>
       <c r="F15">
-        <v>0.571587729278221</v>
+        <v>0.8861284414964388</v>
       </c>
       <c r="G15">
-        <v>0.000783515885752631</v>
+        <v>0.002446890139118633</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4720617010800936</v>
+        <v>0.8885388510998098</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.93266039082971</v>
+        <v>2.04008418931852</v>
       </c>
       <c r="L15">
-        <v>0.06326698241079143</v>
+        <v>0.1423317526403842</v>
       </c>
       <c r="M15">
-        <v>1.284170089555801</v>
+        <v>0.5439472295166041</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.466931466760997</v>
+        <v>3.085389567827292</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1894033272570823</v>
+        <v>0.2016484182519207</v>
       </c>
       <c r="D16">
-        <v>0.09237703991164636</v>
+        <v>0.05451959345359825</v>
       </c>
       <c r="E16">
-        <v>0.0738647949960054</v>
+        <v>0.1200391728292054</v>
       </c>
       <c r="F16">
-        <v>0.5497879453717758</v>
+        <v>0.8879507350459832</v>
       </c>
       <c r="G16">
-        <v>0.0007866061471885885</v>
+        <v>0.002448709133148606</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4585354374565824</v>
+        <v>0.8920014901491982</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.556612973457902</v>
+        <v>1.923503141473759</v>
       </c>
       <c r="L16">
-        <v>0.06216312757569398</v>
+        <v>0.1429662138239038</v>
       </c>
       <c r="M16">
-        <v>1.202277723938892</v>
+        <v>0.5198482990216746</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.434422574414697</v>
+        <v>3.103551638729869</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1830068956951578</v>
+        <v>0.2002796485883067</v>
       </c>
       <c r="D17">
-        <v>0.0894639581257124</v>
+        <v>0.05354924175789932</v>
       </c>
       <c r="E17">
-        <v>0.07211500062133069</v>
+        <v>0.1199556940721784</v>
       </c>
       <c r="F17">
-        <v>0.5370271590812905</v>
+        <v>0.8892605854202387</v>
       </c>
       <c r="G17">
-        <v>0.0007885200367997696</v>
+        <v>0.002449849697911363</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.450759596475045</v>
+        <v>0.894302117672062</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.326488128592302</v>
+        <v>1.851913068655506</v>
       </c>
       <c r="L17">
-        <v>0.06154496877351434</v>
+        <v>0.1433785785375647</v>
       </c>
       <c r="M17">
-        <v>1.152212161815811</v>
+        <v>0.5050718249159871</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.416485877811624</v>
+        <v>3.115353915431825</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1793477993391832</v>
+        <v>0.199499704315528</v>
       </c>
       <c r="D18">
-        <v>0.08779025024082188</v>
+        <v>0.05299051121774312</v>
       </c>
       <c r="E18">
-        <v>0.07112351561296748</v>
+        <v>0.1199137384479165</v>
       </c>
       <c r="F18">
-        <v>0.5299028716087832</v>
+        <v>0.8900844125534988</v>
       </c>
       <c r="G18">
-        <v>0.0007896277227843682</v>
+        <v>0.002450514807883606</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4464710376072816</v>
+        <v>0.8956901332697242</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.194313749544335</v>
+        <v>1.810710919956819</v>
       </c>
       <c r="L18">
-        <v>0.06121029428904023</v>
+        <v>0.1436242597110997</v>
       </c>
       <c r="M18">
-        <v>1.123473918549394</v>
+        <v>0.4965756782049624</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.406875841540312</v>
+        <v>3.122384620409235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1781122255717946</v>
+        <v>0.1992368904331414</v>
       </c>
       <c r="D19">
-        <v>0.08722385197130222</v>
+        <v>0.05280123104571999</v>
       </c>
       <c r="E19">
-        <v>0.07079032532431384</v>
+        <v>0.1199005738399563</v>
       </c>
       <c r="F19">
-        <v>0.5275268003319198</v>
+        <v>0.8903754343171997</v>
       </c>
       <c r="G19">
-        <v>0.0007900039653384136</v>
+        <v>0.002450741565411589</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4450498558049887</v>
+        <v>0.8961712062162235</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.149591984614403</v>
+        <v>1.796756288352015</v>
       </c>
       <c r="L19">
-        <v>0.06110048918170463</v>
+        <v>0.1437089025073917</v>
       </c>
       <c r="M19">
-        <v>1.113753138199783</v>
+        <v>0.4936995402336208</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.403740592077014</v>
+        <v>3.124806685580495</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1836857180008735</v>
+        <v>0.2004245976782499</v>
       </c>
       <c r="D20">
-        <v>0.08977386702647294</v>
+        <v>0.05365260074744072</v>
       </c>
       <c r="E20">
-        <v>0.07229970795793506</v>
+        <v>0.1199639534724071</v>
       </c>
       <c r="F20">
-        <v>0.5383630597332001</v>
+        <v>0.8891138575370192</v>
       </c>
       <c r="G20">
-        <v>0.0007883155937952786</v>
+        <v>0.002449727342721382</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4515681392964908</v>
+        <v>0.894050508302918</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.35096544993263</v>
+        <v>1.859536604322102</v>
       </c>
       <c r="L20">
-        <v>0.0616085944285274</v>
+        <v>0.1433338017849763</v>
       </c>
       <c r="M20">
-        <v>1.157535590973467</v>
+        <v>0.5066445102061437</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.418321453899466</v>
+        <v>3.114072452733382</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2026576601606109</v>
+        <v>0.2045026376488437</v>
       </c>
       <c r="D21">
-        <v>0.09836500928700076</v>
+        <v>0.05650571517429626</v>
       </c>
       <c r="E21">
-        <v>0.07755410284834952</v>
+        <v>0.1202492805998254</v>
       </c>
       <c r="F21">
-        <v>0.5774136350060672</v>
+        <v>0.8857173792250421</v>
       </c>
       <c r="G21">
-        <v>0.0007827234645772715</v>
+        <v>0.002446428121125085</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4757220180763468</v>
+        <v>0.8876994658271187</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.029942123861474</v>
+        <v>2.070160409765606</v>
       </c>
       <c r="L21">
-        <v>0.06357090811926369</v>
+        <v>0.1421751064702477</v>
       </c>
       <c r="M21">
-        <v>1.305370997174535</v>
+        <v>0.5501712724764189</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.47597073843059</v>
+        <v>3.08090495131961</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.215257206905406</v>
+        <v>0.207232771212702</v>
       </c>
       <c r="D22">
-        <v>0.1040013118623477</v>
+        <v>0.05836470565186858</v>
       </c>
       <c r="E22">
-        <v>0.08113507322079982</v>
+        <v>0.1204896738842365</v>
       </c>
       <c r="F22">
-        <v>0.605066930767741</v>
+        <v>0.8841268988071675</v>
       </c>
       <c r="G22">
-        <v>0.0007791252470953373</v>
+        <v>0.002444352369007197</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4933195893509605</v>
+        <v>0.8841269197968487</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.475830180076912</v>
+        <v>2.207571880175578</v>
       </c>
       <c r="L22">
-        <v>0.06505709061192988</v>
+        <v>0.1414936331074479</v>
       </c>
       <c r="M22">
-        <v>1.402624706807643</v>
+        <v>0.5786409530239212</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.520611379055453</v>
+        <v>3.061393786242974</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.208513122771123</v>
+        <v>0.2057697298680381</v>
       </c>
       <c r="D23">
-        <v>0.1009908736403773</v>
+        <v>0.05737305978207274</v>
       </c>
       <c r="E23">
-        <v>0.07920969978775361</v>
+        <v>0.120356440147269</v>
       </c>
       <c r="F23">
-        <v>0.5901019799930793</v>
+        <v>0.8849180848811287</v>
       </c>
       <c r="G23">
-        <v>0.0007810407404003628</v>
+        <v>0.00244545289419115</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4837528398372797</v>
+        <v>0.8859806703373039</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.237631825401536</v>
+        <v>2.134255872259473</v>
       </c>
       <c r="L23">
-        <v>0.06424434504070575</v>
+        <v>0.1418504071244477</v>
       </c>
       <c r="M23">
-        <v>1.350654538314089</v>
+        <v>0.5634442562603397</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.496114620792525</v>
+        <v>3.071608730101303</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1833787656874506</v>
+        <v>0.2003590444509911</v>
       </c>
       <c r="D24">
-        <v>0.08963375396234596</v>
+        <v>0.05360587483173873</v>
       </c>
       <c r="E24">
-        <v>0.07221615677088877</v>
+        <v>0.1199602005913114</v>
       </c>
       <c r="F24">
-        <v>0.5377584408370311</v>
+        <v>0.8891799727693552</v>
       </c>
       <c r="G24">
-        <v>0.000788407999490236</v>
+        <v>0.002449782630270513</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4512020324614099</v>
+        <v>0.8941640573398786</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.339898860990502</v>
+        <v>1.856090140914091</v>
       </c>
       <c r="L24">
-        <v>0.06157976494507622</v>
+        <v>0.1433540185450326</v>
       </c>
       <c r="M24">
-        <v>1.155128729385353</v>
+        <v>0.5059335021256004</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.417489410578156</v>
+        <v>3.114651037628164</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1570192897110729</v>
+        <v>0.1948034368790275</v>
       </c>
       <c r="D25">
-        <v>0.07745029542813597</v>
+        <v>0.0495191782941049</v>
       </c>
       <c r="E25">
-        <v>0.06523723256447411</v>
+        <v>0.1197644635718689</v>
       </c>
       <c r="F25">
-        <v>0.4894263854664374</v>
+        <v>0.89646871991674</v>
       </c>
       <c r="G25">
-        <v>0.0007966196491316743</v>
+        <v>0.002454800653064438</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4230357742139361</v>
+        <v>0.9054659318153853</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.37848227625949</v>
+        <v>1.55508022934788</v>
       </c>
       <c r="L25">
-        <v>0.05949484412441564</v>
+        <v>0.1453008091123742</v>
       </c>
       <c r="M25">
-        <v>0.9463881905328861</v>
+        <v>0.4440111268378359</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.359367159640101</v>
+        <v>3.170339998558234</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_199/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1909554164245861</v>
+        <v>0.1381444357969599</v>
       </c>
       <c r="D2">
-        <v>0.04649090588771543</v>
+        <v>0.06851038208019133</v>
       </c>
       <c r="E2">
-        <v>0.1198196255914432</v>
+        <v>0.06051648246420882</v>
       </c>
       <c r="F2">
-        <v>0.9041384715165393</v>
+        <v>0.4597916923340577</v>
       </c>
       <c r="G2">
-        <v>0.002458797528885286</v>
+        <v>0.0008029171520286233</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9159076666920143</v>
+        <v>0.4074258090018716</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.332658977748679</v>
+        <v>3.674165131822804</v>
       </c>
       <c r="L2">
-        <v>0.1470131957561911</v>
+        <v>0.05855207352346881</v>
       </c>
       <c r="M2">
-        <v>0.3985214942162756</v>
+        <v>0.7939626507859714</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.219270872553608</v>
+        <v>1.336282505645173</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1884995670253033</v>
+        <v>0.1256344812267685</v>
       </c>
       <c r="D3">
-        <v>0.04442701427139184</v>
+        <v>0.06245908368108388</v>
       </c>
       <c r="E3">
-        <v>0.1199813651475345</v>
+        <v>0.05754702970895487</v>
       </c>
       <c r="F3">
-        <v>0.9107671145248588</v>
+        <v>0.4429498273155374</v>
       </c>
       <c r="G3">
-        <v>0.002461696270925397</v>
+        <v>0.0008073525175060217</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9243026318311678</v>
+        <v>0.3996637010149016</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.1814544102985</v>
+        <v>3.198008383049853</v>
       </c>
       <c r="L3">
-        <v>0.1483474949222447</v>
+        <v>0.05824346421112381</v>
       </c>
       <c r="M3">
-        <v>0.3677618158228384</v>
+        <v>0.6911898388792537</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.257357974828835</v>
+        <v>1.331465813995464</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.187066929185093</v>
+        <v>0.1180768680254971</v>
       </c>
       <c r="D4">
-        <v>0.04315422489717946</v>
+        <v>0.05874377242263762</v>
       </c>
       <c r="E4">
-        <v>0.1201420431006177</v>
+        <v>0.05582777729106603</v>
       </c>
       <c r="F4">
-        <v>0.9155409833865065</v>
+        <v>0.4340641999608081</v>
       </c>
       <c r="G4">
-        <v>0.002463570348477426</v>
+        <v>0.000810161739943704</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9301062141144207</v>
+        <v>0.3961705478638606</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.088394305530073</v>
+        <v>2.905908625062494</v>
       </c>
       <c r="L4">
-        <v>0.149252416021227</v>
+        <v>0.05820494200004234</v>
       </c>
       <c r="M4">
-        <v>0.3489113508678798</v>
+        <v>0.6282686700277651</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.283167235726197</v>
+        <v>1.33340166437543</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1865021066187325</v>
+        <v>0.1150260489800843</v>
       </c>
       <c r="D5">
-        <v>0.04263419304613336</v>
+        <v>0.05722936477305751</v>
       </c>
       <c r="E5">
-        <v>0.1202229615258155</v>
+        <v>0.05515201993640417</v>
       </c>
       <c r="F5">
-        <v>0.917663107118166</v>
+        <v>0.4307890858228802</v>
       </c>
       <c r="G5">
-        <v>0.002464357817982894</v>
+        <v>0.0008113285697393891</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9326342427150855</v>
+        <v>0.3950507847980269</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.050418647405735</v>
+        <v>2.786900525067239</v>
       </c>
       <c r="L5">
-        <v>0.1496427076948095</v>
+        <v>0.05822552848837503</v>
       </c>
       <c r="M5">
-        <v>0.3412391789052336</v>
+        <v>0.6026630687846293</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.29429323864386</v>
+        <v>1.335358223649862</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.186409467021079</v>
+        <v>0.1145211533982717</v>
       </c>
       <c r="D6">
-        <v>0.04254776109362268</v>
+        <v>0.05697786289081819</v>
       </c>
       <c r="E6">
-        <v>0.1202373308267841</v>
+        <v>0.05504127518231527</v>
       </c>
       <c r="F6">
-        <v>0.9180261508725067</v>
+        <v>0.4302655755761364</v>
       </c>
       <c r="G6">
-        <v>0.002464490014267802</v>
+        <v>0.0008115236653634702</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9330638606304227</v>
+        <v>0.3948827314606724</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.044109693342079</v>
+        <v>2.767139681279929</v>
       </c>
       <c r="L6">
-        <v>0.1497088153368402</v>
+        <v>0.05823109094088252</v>
       </c>
       <c r="M6">
-        <v>0.3399658109782351</v>
+        <v>0.5984131179872847</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.296177429007898</v>
+        <v>1.335751859463059</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1870592348202109</v>
+        <v>0.118035609003357</v>
       </c>
       <c r="D7">
-        <v>0.04314721702421309</v>
+        <v>0.05872335072002954</v>
       </c>
       <c r="E7">
-        <v>0.120143071863211</v>
+        <v>0.05581856483634695</v>
       </c>
       <c r="F7">
-        <v>0.9155688878454527</v>
+        <v>0.434018656116784</v>
       </c>
       <c r="G7">
-        <v>0.002463580872366623</v>
+        <v>0.0008101773863681429</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.930139648170659</v>
+        <v>0.3961542375522811</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.087882363574977</v>
+        <v>2.904303591468732</v>
       </c>
       <c r="L7">
-        <v>0.1492575924745552</v>
+        <v>0.05820507487531046</v>
       </c>
       <c r="M7">
-        <v>0.348807842000852</v>
+        <v>0.6279232143349276</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.283314822251029</v>
+        <v>1.333423403920023</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1900930553264146</v>
+        <v>0.1338040576506927</v>
       </c>
       <c r="D8">
-        <v>0.04578044922185143</v>
+        <v>0.06642357221525685</v>
       </c>
       <c r="E8">
-        <v>0.1198626613713287</v>
+        <v>0.05947022439602989</v>
       </c>
       <c r="F8">
-        <v>0.9062777872423595</v>
+        <v>0.4536701307753148</v>
       </c>
       <c r="G8">
-        <v>0.002459777498726323</v>
+        <v>0.0008044289184119044</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9186674311191965</v>
+        <v>0.4044751644991678</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.28057065687392</v>
+        <v>3.509906060577464</v>
       </c>
       <c r="L8">
-        <v>0.1474554782098885</v>
+        <v>0.05841329588718125</v>
       </c>
       <c r="M8">
-        <v>0.387908333488781</v>
+        <v>0.7584823474918068</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.231899729119249</v>
+        <v>1.333567293747464</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1966372604061064</v>
+        <v>0.1658084618211291</v>
       </c>
       <c r="D9">
-        <v>0.05089883059231681</v>
+        <v>0.08154785716377688</v>
       </c>
       <c r="E9">
-        <v>0.1197994458216911</v>
+        <v>0.06751887498734277</v>
       </c>
       <c r="F9">
-        <v>0.8936549491432118</v>
+        <v>0.5047164460466647</v>
       </c>
       <c r="G9">
-        <v>0.002453063597374981</v>
+        <v>0.0007938160031832211</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9013289781049636</v>
+        <v>0.4316732510829482</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.656601484826979</v>
+        <v>4.701631906170405</v>
       </c>
       <c r="L9">
-        <v>0.1446016635936864</v>
+        <v>0.06009963902068804</v>
       </c>
       <c r="M9">
-        <v>0.4648542415935069</v>
+        <v>1.016468206677402</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.150347142242566</v>
+        <v>1.37567784568941</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2018055969671622</v>
+        <v>0.1901359832914267</v>
       </c>
       <c r="D10">
-        <v>0.05463023381886245</v>
+        <v>0.09270970657738786</v>
       </c>
       <c r="E10">
-        <v>0.1200495192319302</v>
+        <v>0.07406652972751715</v>
       </c>
       <c r="F10">
-        <v>0.887810823439203</v>
+        <v>0.5512739239303954</v>
       </c>
       <c r="G10">
-        <v>0.002448580216461203</v>
+        <v>0.0007863886745830481</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8917477525420452</v>
+        <v>0.4594482037318883</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.931668562851598</v>
+        <v>5.582898735390643</v>
       </c>
       <c r="L10">
-        <v>0.1429203122807543</v>
+        <v>0.062236550664867</v>
       </c>
       <c r="M10">
-        <v>0.5215347778372177</v>
+        <v>1.207998813365464</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.102237781795168</v>
+        <v>1.436567228520147</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2042345971030528</v>
+        <v>0.2014169972973434</v>
       </c>
       <c r="D11">
-        <v>0.05632116472678206</v>
+        <v>0.09780714904285048</v>
       </c>
       <c r="E11">
-        <v>0.1202276487249776</v>
+        <v>0.07720528620518152</v>
       </c>
       <c r="F11">
-        <v>0.8859008196099438</v>
+        <v>0.574762450439458</v>
       </c>
       <c r="G11">
-        <v>0.002446637208377715</v>
+        <v>0.0007830824556064387</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8880773275879434</v>
+        <v>0.4740541202696491</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.056526202202065</v>
+        <v>5.985828452936971</v>
       </c>
       <c r="L11">
-        <v>0.1422457720100567</v>
+        <v>0.06343217005223423</v>
       </c>
       <c r="M11">
-        <v>0.5473494403248935</v>
+        <v>1.29575638104653</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.082928050803446</v>
+        <v>1.471840186367558</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2051655458822097</v>
+        <v>0.2057229428771308</v>
       </c>
       <c r="D12">
-        <v>0.05696051118056999</v>
+        <v>0.09974105785953213</v>
       </c>
       <c r="E12">
-        <v>0.120304352871397</v>
+        <v>0.07841889309267103</v>
       </c>
       <c r="F12">
-        <v>0.8852854854197361</v>
+        <v>0.5840199679125035</v>
       </c>
       <c r="G12">
-        <v>0.00244591524575892</v>
+        <v>0.0007818402252515044</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8867866012708916</v>
+        <v>0.4798936177949358</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.103765522638582</v>
+        <v>6.138769786683724</v>
       </c>
       <c r="L12">
-        <v>0.1420033416039921</v>
+        <v>0.06391964172035713</v>
       </c>
       <c r="M12">
-        <v>0.5571287782327232</v>
+        <v>1.329095638343375</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.075987342288443</v>
+        <v>1.486383282866825</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2049645549808616</v>
+        <v>0.2047940106145631</v>
       </c>
       <c r="D13">
-        <v>0.05682286031686345</v>
+        <v>0.09932438218253026</v>
       </c>
       <c r="E13">
-        <v>0.1202874219425425</v>
+        <v>0.07815637464268121</v>
       </c>
       <c r="F13">
-        <v>0.8854132029941155</v>
+        <v>0.5820095376737484</v>
       </c>
       <c r="G13">
-        <v>0.002446070120094714</v>
+        <v>0.000782107338637573</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8870601673474781</v>
+        <v>0.4786218330096261</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.09359357725117</v>
+        <v>6.105813955634744</v>
       </c>
       <c r="L13">
-        <v>0.1420549747444184</v>
+        <v>0.06381306881167248</v>
       </c>
       <c r="M13">
-        <v>0.5550224577246468</v>
+        <v>1.321910373323277</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.077465609137221</v>
+        <v>1.483196794671301</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2043109639305527</v>
+        <v>0.2017705476626759</v>
       </c>
       <c r="D14">
-        <v>0.05637378384360403</v>
+        <v>0.09796617575575084</v>
       </c>
       <c r="E14">
-        <v>0.1202337738639159</v>
+        <v>0.07730461681912004</v>
       </c>
       <c r="F14">
-        <v>0.8858480306098073</v>
+        <v>0.5755166131555711</v>
       </c>
       <c r="G14">
-        <v>0.002446577535708904</v>
+        <v>0.0007829800648339701</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8879691496329087</v>
+        <v>0.4745282043309089</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.060413456512606</v>
+        <v>5.998403393017668</v>
       </c>
       <c r="L14">
-        <v>0.1422255664151812</v>
+        <v>0.06347156341091065</v>
       </c>
       <c r="M14">
-        <v>0.5481539172381957</v>
+        <v>1.298496968163846</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.082349583372263</v>
+        <v>1.473012304402459</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2039120693373206</v>
+        <v>0.199923127187617</v>
       </c>
       <c r="D15">
-        <v>0.05609858380682198</v>
+        <v>0.09713473010293683</v>
       </c>
       <c r="E15">
-        <v>0.1202021173625205</v>
+        <v>0.07678621166946087</v>
       </c>
       <c r="F15">
-        <v>0.8861284414964388</v>
+        <v>0.571587729278221</v>
       </c>
       <c r="G15">
-        <v>0.002446890139118633</v>
+        <v>0.0007835158857826696</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8885388510998098</v>
+        <v>0.4720617010800581</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.04008418931852</v>
+        <v>5.932660390829653</v>
       </c>
       <c r="L15">
-        <v>0.1423317526403842</v>
+        <v>0.06326698241080919</v>
       </c>
       <c r="M15">
-        <v>0.5439472295166041</v>
+        <v>1.284170089555815</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.085389567827292</v>
+        <v>1.466931466760997</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2016484182519207</v>
+        <v>0.1894033272572102</v>
       </c>
       <c r="D16">
-        <v>0.05451959345359825</v>
+        <v>0.09237703991170321</v>
       </c>
       <c r="E16">
-        <v>0.1200391728292054</v>
+        <v>0.07386479499599474</v>
       </c>
       <c r="F16">
-        <v>0.8879507350459832</v>
+        <v>0.5497879453717616</v>
       </c>
       <c r="G16">
-        <v>0.002448709133148606</v>
+        <v>0.0007866061472485434</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8920014901491982</v>
+        <v>0.4585354374565611</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.923503141473759</v>
+        <v>5.556612973458016</v>
       </c>
       <c r="L16">
-        <v>0.1429662138239038</v>
+        <v>0.06216312757559805</v>
       </c>
       <c r="M16">
-        <v>0.5198482990216746</v>
+        <v>1.202277723938877</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.103551638729869</v>
+        <v>1.434422574414668</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2002796485883067</v>
+        <v>0.1830068956950015</v>
       </c>
       <c r="D17">
-        <v>0.05354924175789932</v>
+        <v>0.08946395812564134</v>
       </c>
       <c r="E17">
-        <v>0.1199556940721784</v>
+        <v>0.07211500062133425</v>
       </c>
       <c r="F17">
-        <v>0.8892605854202387</v>
+        <v>0.5370271590813047</v>
       </c>
       <c r="G17">
-        <v>0.002449849697911363</v>
+        <v>0.0007885200368011936</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.894302117672062</v>
+        <v>0.450759596475045</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.851913068655506</v>
+        <v>5.326488128592473</v>
       </c>
       <c r="L17">
-        <v>0.1433785785375647</v>
+        <v>0.06154496877351789</v>
       </c>
       <c r="M17">
-        <v>0.5050718249159871</v>
+        <v>1.152212161815811</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.115353915431825</v>
+        <v>1.416485877811624</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.199499704315528</v>
+        <v>0.1793477993391548</v>
       </c>
       <c r="D18">
-        <v>0.05299051121774312</v>
+        <v>0.08779025024100662</v>
       </c>
       <c r="E18">
-        <v>0.1199137384479165</v>
+        <v>0.07112351561298169</v>
       </c>
       <c r="F18">
-        <v>0.8900844125534988</v>
+        <v>0.5299028716087761</v>
       </c>
       <c r="G18">
-        <v>0.002450514807883606</v>
+        <v>0.0007896277229014518</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8956901332697242</v>
+        <v>0.4464710376072958</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.810710919956819</v>
+        <v>5.194313749544392</v>
       </c>
       <c r="L18">
-        <v>0.1436242597110997</v>
+        <v>0.06121029428914326</v>
       </c>
       <c r="M18">
-        <v>0.4965756782049624</v>
+        <v>1.123473918549394</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.122384620409235</v>
+        <v>1.406875841540227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1992368904331414</v>
+        <v>0.1781122255715388</v>
       </c>
       <c r="D19">
-        <v>0.05280123104571999</v>
+        <v>0.08722385197138038</v>
       </c>
       <c r="E19">
-        <v>0.1199005738399563</v>
+        <v>0.07079032532430318</v>
       </c>
       <c r="F19">
-        <v>0.8903754343171997</v>
+        <v>0.5275268003318985</v>
       </c>
       <c r="G19">
-        <v>0.002450741565411589</v>
+        <v>0.000790003965377084</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8961712062162235</v>
+        <v>0.4450498558049958</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.796756288352015</v>
+        <v>5.149591984614403</v>
       </c>
       <c r="L19">
-        <v>0.1437089025073917</v>
+        <v>0.06110048918176147</v>
       </c>
       <c r="M19">
-        <v>0.4936995402336208</v>
+        <v>1.113753138199812</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.124806685580495</v>
+        <v>1.403740592077014</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2004245976782499</v>
+        <v>0.1836857180011151</v>
       </c>
       <c r="D20">
-        <v>0.05365260074744072</v>
+        <v>0.0897738670264161</v>
       </c>
       <c r="E20">
-        <v>0.1199639534724071</v>
+        <v>0.0722997079579315</v>
       </c>
       <c r="F20">
-        <v>0.8891138575370192</v>
+        <v>0.5383630597332143</v>
       </c>
       <c r="G20">
-        <v>0.002449727342721382</v>
+        <v>0.0007883155938528445</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.894050508302918</v>
+        <v>0.4515681392964694</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.859536604322102</v>
+        <v>5.350965449932517</v>
       </c>
       <c r="L20">
-        <v>0.1433338017849763</v>
+        <v>0.06160859442857358</v>
       </c>
       <c r="M20">
-        <v>0.5066445102061437</v>
+        <v>1.157535590973453</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.114072452733382</v>
+        <v>1.418321453899438</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2045026376488437</v>
+        <v>0.2026576601608383</v>
       </c>
       <c r="D21">
-        <v>0.05650571517429626</v>
+        <v>0.09836500928699365</v>
       </c>
       <c r="E21">
-        <v>0.1202492805998254</v>
+        <v>0.07755410284834952</v>
       </c>
       <c r="F21">
-        <v>0.8857173792250421</v>
+        <v>0.5774136350060672</v>
       </c>
       <c r="G21">
-        <v>0.002446428121125085</v>
+        <v>0.0007827234645653009</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8876994658271187</v>
+        <v>0.4757220180763539</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.070160409765606</v>
+        <v>6.029942123861531</v>
       </c>
       <c r="L21">
-        <v>0.1421751064702477</v>
+        <v>0.06357090811930632</v>
       </c>
       <c r="M21">
-        <v>0.5501712724764189</v>
+        <v>1.305370997174549</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.08090495131961</v>
+        <v>1.47597073843059</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.207232771212702</v>
+        <v>0.2152572069055054</v>
       </c>
       <c r="D22">
-        <v>0.05836470565186858</v>
+        <v>0.1040013118623406</v>
       </c>
       <c r="E22">
-        <v>0.1204896738842365</v>
+        <v>0.08113507322079627</v>
       </c>
       <c r="F22">
-        <v>0.8841268988071675</v>
+        <v>0.6050669307677552</v>
       </c>
       <c r="G22">
-        <v>0.002444352369007197</v>
+        <v>0.0007791252470142551</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8841269197968487</v>
+        <v>0.4933195893509534</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.207571880175578</v>
+        <v>6.475830180076855</v>
       </c>
       <c r="L22">
-        <v>0.1414936331074479</v>
+        <v>0.06505709061199383</v>
       </c>
       <c r="M22">
-        <v>0.5786409530239212</v>
+        <v>1.402624706807615</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.061393786242974</v>
+        <v>1.520611379055481</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2057697298680381</v>
+        <v>0.2085131227709809</v>
       </c>
       <c r="D23">
-        <v>0.05737305978207274</v>
+        <v>0.1009908736402494</v>
       </c>
       <c r="E23">
-        <v>0.120356440147269</v>
+        <v>0.07920969978771453</v>
       </c>
       <c r="F23">
-        <v>0.8849180848811287</v>
+        <v>0.5901019799930651</v>
       </c>
       <c r="G23">
-        <v>0.00244545289419115</v>
+        <v>0.0007810407403474845</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8859806703373039</v>
+        <v>0.4837528398372868</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.134255872259473</v>
+        <v>6.237631825401536</v>
       </c>
       <c r="L23">
-        <v>0.1418504071244477</v>
+        <v>0.06424434504075194</v>
       </c>
       <c r="M23">
-        <v>0.5634442562603397</v>
+        <v>1.350654538314075</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.071608730101303</v>
+        <v>1.496114620792525</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2003590444509911</v>
+        <v>0.1833787656873653</v>
       </c>
       <c r="D24">
-        <v>0.05360587483173873</v>
+        <v>0.08963375396245254</v>
       </c>
       <c r="E24">
-        <v>0.1199602005913114</v>
+        <v>0.07221615677087811</v>
       </c>
       <c r="F24">
-        <v>0.8891799727693552</v>
+        <v>0.5377584408370453</v>
       </c>
       <c r="G24">
-        <v>0.002449782630270513</v>
+        <v>0.0007884079995465415</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8941640573398786</v>
+        <v>0.4512020324614241</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.856090140914091</v>
+        <v>5.339898860990445</v>
       </c>
       <c r="L24">
-        <v>0.1433540185450326</v>
+        <v>0.06157976494506201</v>
       </c>
       <c r="M24">
-        <v>0.5059335021256004</v>
+        <v>1.155128729385353</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.114651037628164</v>
+        <v>1.417489410578156</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1948034368790275</v>
+        <v>0.1570192897107461</v>
       </c>
       <c r="D25">
-        <v>0.0495191782941049</v>
+        <v>0.07745029542825677</v>
       </c>
       <c r="E25">
-        <v>0.1197644635718689</v>
+        <v>0.0652372325644599</v>
       </c>
       <c r="F25">
-        <v>0.89646871991674</v>
+        <v>0.4894263854664587</v>
       </c>
       <c r="G25">
-        <v>0.002454800653064438</v>
+        <v>0.000796619649172475</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9054659318153853</v>
+        <v>0.4230357742139574</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.55508022934788</v>
+        <v>4.378482276259433</v>
       </c>
       <c r="L25">
-        <v>0.1453008091123742</v>
+        <v>0.05949484412447248</v>
       </c>
       <c r="M25">
-        <v>0.4440111268378359</v>
+        <v>0.9463881905328648</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.170339998558234</v>
+        <v>1.359367159640129</v>
       </c>
     </row>
   </sheetData>
